--- a/natmiOut/OldD2/LR-pairs_lrc2p/Il7-Il2rg.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Il7-Il2rg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,28 +76,28 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Il7</t>
   </si>
   <si>
     <t>Il2rg</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.623670283777224</v>
+        <v>0.271003</v>
       </c>
       <c r="H2">
-        <v>0.623670283777224</v>
+        <v>0.542006</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.1813976635659463</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.1308560449753525</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>50.9980411644472</v>
+        <v>51.426897</v>
       </c>
       <c r="N2">
-        <v>50.9980411644472</v>
+        <v>102.853794</v>
       </c>
       <c r="O2">
-        <v>0.2444701107791058</v>
+        <v>0.2415189642606735</v>
       </c>
       <c r="P2">
-        <v>0.2444701107791058</v>
+        <v>0.1768487108054954</v>
       </c>
       <c r="Q2">
-        <v>31.80596280511334</v>
+        <v>13.936843367691</v>
       </c>
       <c r="R2">
-        <v>31.80596280511334</v>
+        <v>55.747373470764</v>
       </c>
       <c r="S2">
-        <v>0.2444701107791058</v>
+        <v>0.04381097582375347</v>
       </c>
       <c r="T2">
-        <v>0.2444701107791058</v>
+        <v>0.02314172285499702</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.623670283777224</v>
+        <v>0.271003</v>
       </c>
       <c r="H3">
-        <v>0.623670283777224</v>
+        <v>0.542006</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.1813976635659463</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.1308560449753525</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.546150467073338</v>
+        <v>0.5682903333333333</v>
       </c>
       <c r="N3">
-        <v>0.546150467073338</v>
+        <v>1.704871</v>
       </c>
       <c r="O3">
-        <v>0.00261809007049784</v>
+        <v>0.002668893141774033</v>
       </c>
       <c r="P3">
-        <v>0.00261809007049784</v>
+        <v>0.002931386648116022</v>
       </c>
       <c r="Q3">
-        <v>0.3406178167846922</v>
+        <v>0.1540083852043333</v>
       </c>
       <c r="R3">
-        <v>0.3406178167846922</v>
+        <v>0.924050311226</v>
       </c>
       <c r="S3">
-        <v>0.00261809007049784</v>
+        <v>0.0004841309802249875</v>
       </c>
       <c r="T3">
-        <v>0.00261809007049784</v>
+        <v>0.000383589663066018</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.623670283777224</v>
+        <v>0.271003</v>
       </c>
       <c r="H4">
-        <v>0.623670283777224</v>
+        <v>0.542006</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.1813976635659463</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.1308560449753525</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>51.2146585905512</v>
+        <v>53.30129133333333</v>
       </c>
       <c r="N4">
-        <v>51.2146585905512</v>
+        <v>159.903874</v>
       </c>
       <c r="O4">
-        <v>0.2455085131362781</v>
+        <v>0.2503217854381353</v>
       </c>
       <c r="P4">
-        <v>0.2455085131362781</v>
+        <v>0.2749416707924686</v>
       </c>
       <c r="Q4">
-        <v>31.94106065672271</v>
+        <v>14.44480985520733</v>
       </c>
       <c r="R4">
-        <v>31.94106065672271</v>
+        <v>86.66885913124401</v>
       </c>
       <c r="S4">
-        <v>0.2455085131362781</v>
+        <v>0.04540778701813386</v>
       </c>
       <c r="T4">
-        <v>0.2455085131362781</v>
+        <v>0.03597777963881783</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.623670283777224</v>
+        <v>0.271003</v>
       </c>
       <c r="H5">
-        <v>0.623670283777224</v>
+        <v>0.542006</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.1813976635659463</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.1308560449753525</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>71.5070377509914</v>
+        <v>71.58517466666667</v>
       </c>
       <c r="N5">
-        <v>71.5070377509914</v>
+        <v>214.755524</v>
       </c>
       <c r="O5">
-        <v>0.3427844097795959</v>
+        <v>0.3361893921368179</v>
       </c>
       <c r="P5">
-        <v>0.3427844097795959</v>
+        <v>0.3692546096817647</v>
       </c>
       <c r="Q5">
-        <v>44.59681452622948</v>
+        <v>19.39979709019067</v>
       </c>
       <c r="R5">
-        <v>44.59681452622948</v>
+        <v>116.398782541144</v>
       </c>
       <c r="S5">
-        <v>0.3427844097795959</v>
+        <v>0.06098397024927448</v>
       </c>
       <c r="T5">
-        <v>0.3427844097795959</v>
+        <v>0.04831919781187324</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.623670283777224</v>
+        <v>0.271003</v>
       </c>
       <c r="H6">
-        <v>0.623670283777224</v>
+        <v>0.542006</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.1813976635659463</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.1308560449753525</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>29.1767217981543</v>
+        <v>30.27505</v>
       </c>
       <c r="N6">
-        <v>29.1767217981543</v>
+        <v>90.82514999999999</v>
       </c>
       <c r="O6">
-        <v>0.1398649094612387</v>
+        <v>0.14218238208967</v>
       </c>
       <c r="P6">
-        <v>0.1398649094612387</v>
+        <v>0.1561664384127215</v>
       </c>
       <c r="Q6">
-        <v>18.19665436354401</v>
+        <v>8.204629375149999</v>
       </c>
       <c r="R6">
-        <v>18.19665436354401</v>
+        <v>49.22777625089999</v>
       </c>
       <c r="S6">
-        <v>0.1398649094612387</v>
+        <v>0.02579155191130679</v>
       </c>
       <c r="T6">
-        <v>0.1398649094612387</v>
+        <v>0.0204353224885757</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,1549 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.271003</v>
+      </c>
+      <c r="H7">
+        <v>0.542006</v>
+      </c>
+      <c r="I7">
+        <v>0.1813976635659463</v>
+      </c>
+      <c r="J7">
+        <v>0.1308560449753525</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>5.7743895</v>
+      </c>
+      <c r="N7">
+        <v>11.548779</v>
+      </c>
+      <c r="O7">
+        <v>0.02711858293292922</v>
+      </c>
+      <c r="P7">
+        <v>0.01985718365943388</v>
+      </c>
+      <c r="Q7">
+        <v>1.5648768776685</v>
+      </c>
+      <c r="R7">
+        <v>6.259507510674</v>
+      </c>
+      <c r="S7">
+        <v>0.004919247583252707</v>
+      </c>
+      <c r="T7">
+        <v>0.002598432518022715</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.7595033333333333</v>
+      </c>
+      <c r="H8">
+        <v>2.27851</v>
+      </c>
+      <c r="I8">
+        <v>0.5083786162412031</v>
+      </c>
+      <c r="J8">
+        <v>0.5500987203772476</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>51.426897</v>
+      </c>
+      <c r="N8">
+        <v>102.853794</v>
+      </c>
+      <c r="O8">
+        <v>0.2415189642606735</v>
+      </c>
+      <c r="P8">
+        <v>0.1768487108054954</v>
+      </c>
+      <c r="Q8">
+        <v>39.05889969448999</v>
+      </c>
+      <c r="R8">
+        <v>234.35339816694</v>
+      </c>
+      <c r="S8">
+        <v>0.1227830768468498</v>
+      </c>
+      <c r="T8">
+        <v>0.09728424951446893</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.7595033333333333</v>
+      </c>
+      <c r="H9">
+        <v>2.27851</v>
+      </c>
+      <c r="I9">
+        <v>0.5083786162412031</v>
+      </c>
+      <c r="J9">
+        <v>0.5500987203772476</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.5682903333333333</v>
+      </c>
+      <c r="N9">
+        <v>1.704871</v>
+      </c>
+      <c r="O9">
+        <v>0.002668893141774033</v>
+      </c>
+      <c r="P9">
+        <v>0.002931386648116022</v>
+      </c>
+      <c r="Q9">
+        <v>0.4316184024677778</v>
+      </c>
+      <c r="R9">
+        <v>3.88456562221</v>
+      </c>
+      <c r="S9">
+        <v>0.00135680820231072</v>
+      </c>
+      <c r="T9">
+        <v>0.001612552044059573</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.7595033333333333</v>
+      </c>
+      <c r="H10">
+        <v>2.27851</v>
+      </c>
+      <c r="I10">
+        <v>0.5083786162412031</v>
+      </c>
+      <c r="J10">
+        <v>0.5500987203772476</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>53.30129133333333</v>
+      </c>
+      <c r="N10">
+        <v>159.903874</v>
+      </c>
+      <c r="O10">
+        <v>0.2503217854381353</v>
+      </c>
+      <c r="P10">
+        <v>0.2749416707924686</v>
+      </c>
+      <c r="Q10">
+        <v>40.48250843863777</v>
+      </c>
+      <c r="R10">
+        <v>364.34257594774</v>
+      </c>
+      <c r="S10">
+        <v>0.1272582428960665</v>
+      </c>
+      <c r="T10">
+        <v>0.1512450612813194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>27</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.623670283777224</v>
-      </c>
-      <c r="H7">
-        <v>0.623670283777224</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>5.16383705338908</v>
-      </c>
-      <c r="N7">
-        <v>5.16383705338908</v>
-      </c>
-      <c r="O7">
-        <v>0.02475396677328369</v>
-      </c>
-      <c r="P7">
-        <v>0.02475396677328369</v>
-      </c>
-      <c r="Q7">
-        <v>3.220531720466512</v>
-      </c>
-      <c r="R7">
-        <v>3.220531720466512</v>
-      </c>
-      <c r="S7">
-        <v>0.02475396677328369</v>
-      </c>
-      <c r="T7">
-        <v>0.02475396677328369</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.7595033333333333</v>
+      </c>
+      <c r="H11">
+        <v>2.27851</v>
+      </c>
+      <c r="I11">
+        <v>0.5083786162412031</v>
+      </c>
+      <c r="J11">
+        <v>0.5500987203772476</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>71.58517466666667</v>
+      </c>
+      <c r="N11">
+        <v>214.755524</v>
+      </c>
+      <c r="O11">
+        <v>0.3361893921368179</v>
+      </c>
+      <c r="P11">
+        <v>0.3692546096817647</v>
+      </c>
+      <c r="Q11">
+        <v>54.36917877658222</v>
+      </c>
+      <c r="R11">
+        <v>489.3226089892401</v>
+      </c>
+      <c r="S11">
+        <v>0.1709114979694867</v>
+      </c>
+      <c r="T11">
+        <v>0.2031264882793388</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.7595033333333333</v>
+      </c>
+      <c r="H12">
+        <v>2.27851</v>
+      </c>
+      <c r="I12">
+        <v>0.5083786162412031</v>
+      </c>
+      <c r="J12">
+        <v>0.5500987203772476</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>30.27505</v>
+      </c>
+      <c r="N12">
+        <v>90.82514999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.14218238208967</v>
+      </c>
+      <c r="P12">
+        <v>0.1561664384127215</v>
+      </c>
+      <c r="Q12">
+        <v>22.99400139183333</v>
+      </c>
+      <c r="R12">
+        <v>206.9460125265</v>
+      </c>
+      <c r="S12">
+        <v>0.07228248266062445</v>
+      </c>
+      <c r="T12">
+        <v>0.08590695793671033</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.7595033333333333</v>
+      </c>
+      <c r="H13">
+        <v>2.27851</v>
+      </c>
+      <c r="I13">
+        <v>0.5083786162412031</v>
+      </c>
+      <c r="J13">
+        <v>0.5500987203772476</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>5.7743895</v>
+      </c>
+      <c r="N13">
+        <v>11.548779</v>
+      </c>
+      <c r="O13">
+        <v>0.02711858293292922</v>
+      </c>
+      <c r="P13">
+        <v>0.01985718365943388</v>
+      </c>
+      <c r="Q13">
+        <v>4.385668073214999</v>
+      </c>
+      <c r="R13">
+        <v>26.31400843929</v>
+      </c>
+      <c r="S13">
+        <v>0.01378650766586486</v>
+      </c>
+      <c r="T13">
+        <v>0.01092341132135057</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.05067566666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.152027</v>
+      </c>
+      <c r="I14">
+        <v>0.03392009510219458</v>
+      </c>
+      <c r="J14">
+        <v>0.03670374857375733</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>51.426897</v>
+      </c>
+      <c r="N14">
+        <v>102.853794</v>
+      </c>
+      <c r="O14">
+        <v>0.2415189642606735</v>
+      </c>
+      <c r="P14">
+        <v>0.1768487108054954</v>
+      </c>
+      <c r="Q14">
+        <v>2.606092290073</v>
+      </c>
+      <c r="R14">
+        <v>15.636553740438</v>
+      </c>
+      <c r="S14">
+        <v>0.008192346236705582</v>
+      </c>
+      <c r="T14">
+        <v>0.006491010616998025</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.05067566666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.152027</v>
+      </c>
+      <c r="I15">
+        <v>0.03392009510219458</v>
+      </c>
+      <c r="J15">
+        <v>0.03670374857375733</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.5682903333333333</v>
+      </c>
+      <c r="N15">
+        <v>1.704871</v>
+      </c>
+      <c r="O15">
+        <v>0.002668893141774033</v>
+      </c>
+      <c r="P15">
+        <v>0.002931386648116022</v>
+      </c>
+      <c r="Q15">
+        <v>0.02879849150188889</v>
+      </c>
+      <c r="R15">
+        <v>0.259186423517</v>
+      </c>
+      <c r="S15">
+        <v>9.05291091865701E-05</v>
+      </c>
+      <c r="T15">
+        <v>0.0001075928785049197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.05067566666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.152027</v>
+      </c>
+      <c r="I16">
+        <v>0.03392009510219458</v>
+      </c>
+      <c r="J16">
+        <v>0.03670374857375733</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>53.30129133333333</v>
+      </c>
+      <c r="N16">
+        <v>159.903874</v>
+      </c>
+      <c r="O16">
+        <v>0.2503217854381353</v>
+      </c>
+      <c r="P16">
+        <v>0.2749416707924686</v>
+      </c>
+      <c r="Q16">
+        <v>2.701078472510889</v>
+      </c>
+      <c r="R16">
+        <v>24.309706252598</v>
+      </c>
+      <c r="S16">
+        <v>0.008490938768212695</v>
+      </c>
+      <c r="T16">
+        <v>0.01009138995721553</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.05067566666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.152027</v>
+      </c>
+      <c r="I17">
+        <v>0.03392009510219458</v>
+      </c>
+      <c r="J17">
+        <v>0.03670374857375733</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>71.58517466666667</v>
+      </c>
+      <c r="N17">
+        <v>214.755524</v>
+      </c>
+      <c r="O17">
+        <v>0.3361893921368179</v>
+      </c>
+      <c r="P17">
+        <v>0.3692546096817647</v>
+      </c>
+      <c r="Q17">
+        <v>3.627626449683111</v>
+      </c>
+      <c r="R17">
+        <v>32.648638047148</v>
+      </c>
+      <c r="S17">
+        <v>0.01140357615362985</v>
+      </c>
+      <c r="T17">
+        <v>0.01355302835346039</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.05067566666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.152027</v>
+      </c>
+      <c r="I18">
+        <v>0.03392009510219458</v>
+      </c>
+      <c r="J18">
+        <v>0.03670374857375733</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>30.27505</v>
+      </c>
+      <c r="N18">
+        <v>90.82514999999999</v>
+      </c>
+      <c r="O18">
+        <v>0.14218238208967</v>
+      </c>
+      <c r="P18">
+        <v>0.1561664384127215</v>
+      </c>
+      <c r="Q18">
+        <v>1.534208342116667</v>
+      </c>
+      <c r="R18">
+        <v>13.80787507905</v>
+      </c>
+      <c r="S18">
+        <v>0.004822839922338175</v>
+      </c>
+      <c r="T18">
+        <v>0.005731893691159688</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.05067566666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.152027</v>
+      </c>
+      <c r="I19">
+        <v>0.03392009510219458</v>
+      </c>
+      <c r="J19">
+        <v>0.03670374857375733</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>5.7743895</v>
+      </c>
+      <c r="N19">
+        <v>11.548779</v>
+      </c>
+      <c r="O19">
+        <v>0.02711858293292922</v>
+      </c>
+      <c r="P19">
+        <v>0.01985718365943388</v>
+      </c>
+      <c r="Q19">
+        <v>0.2926210375055</v>
+      </c>
+      <c r="R19">
+        <v>1.755726225033</v>
+      </c>
+      <c r="S19">
+        <v>0.0009198649121217099</v>
+      </c>
+      <c r="T19">
+        <v>0.0007288330764187838</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.3438793333333334</v>
+      </c>
+      <c r="H20">
+        <v>1.031638</v>
+      </c>
+      <c r="I20">
+        <v>0.2301779228100128</v>
+      </c>
+      <c r="J20">
+        <v>0.2490674799287881</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>51.426897</v>
+      </c>
+      <c r="N20">
+        <v>102.853794</v>
+      </c>
+      <c r="O20">
+        <v>0.2415189642606735</v>
+      </c>
+      <c r="P20">
+        <v>0.1768487108054954</v>
+      </c>
+      <c r="Q20">
+        <v>17.684647055762</v>
+      </c>
+      <c r="R20">
+        <v>106.107882334572</v>
+      </c>
+      <c r="S20">
+        <v>0.05559233351274757</v>
+      </c>
+      <c r="T20">
+        <v>0.04404726272897978</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.3438793333333334</v>
+      </c>
+      <c r="H21">
+        <v>1.031638</v>
+      </c>
+      <c r="I21">
+        <v>0.2301779228100128</v>
+      </c>
+      <c r="J21">
+        <v>0.2490674799287881</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.5682903333333333</v>
+      </c>
+      <c r="N21">
+        <v>1.704871</v>
+      </c>
+      <c r="O21">
+        <v>0.002668893141774033</v>
+      </c>
+      <c r="P21">
+        <v>0.002931386648116022</v>
+      </c>
+      <c r="Q21">
+        <v>0.1954233009664445</v>
+      </c>
+      <c r="R21">
+        <v>1.758809708698</v>
+      </c>
+      <c r="S21">
+        <v>0.0006143202795754361</v>
+      </c>
+      <c r="T21">
+        <v>0.0007301130851431548</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.3438793333333334</v>
+      </c>
+      <c r="H22">
+        <v>1.031638</v>
+      </c>
+      <c r="I22">
+        <v>0.2301779228100128</v>
+      </c>
+      <c r="J22">
+        <v>0.2490674799287881</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>53.30129133333333</v>
+      </c>
+      <c r="N22">
+        <v>159.903874</v>
+      </c>
+      <c r="O22">
+        <v>0.2503217854381353</v>
+      </c>
+      <c r="P22">
+        <v>0.2749416707924686</v>
+      </c>
+      <c r="Q22">
+        <v>18.32921252951245</v>
+      </c>
+      <c r="R22">
+        <v>164.962912765612</v>
+      </c>
+      <c r="S22">
+        <v>0.0576185486062437</v>
+      </c>
+      <c r="T22">
+        <v>0.06847902907169064</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.3438793333333334</v>
+      </c>
+      <c r="H23">
+        <v>1.031638</v>
+      </c>
+      <c r="I23">
+        <v>0.2301779228100128</v>
+      </c>
+      <c r="J23">
+        <v>0.2490674799287881</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>71.58517466666667</v>
+      </c>
+      <c r="N23">
+        <v>214.755524</v>
+      </c>
+      <c r="O23">
+        <v>0.3361893921368179</v>
+      </c>
+      <c r="P23">
+        <v>0.3692546096817647</v>
+      </c>
+      <c r="Q23">
+        <v>24.61666214092356</v>
+      </c>
+      <c r="R23">
+        <v>221.5499592683121</v>
+      </c>
+      <c r="S23">
+        <v>0.0773833759528136</v>
+      </c>
+      <c r="T23">
+        <v>0.09196931508552543</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.3438793333333334</v>
+      </c>
+      <c r="H24">
+        <v>1.031638</v>
+      </c>
+      <c r="I24">
+        <v>0.2301779228100128</v>
+      </c>
+      <c r="J24">
+        <v>0.2490674799287881</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>30.27505</v>
+      </c>
+      <c r="N24">
+        <v>90.82514999999999</v>
+      </c>
+      <c r="O24">
+        <v>0.14218238208967</v>
+      </c>
+      <c r="P24">
+        <v>0.1561664384127215</v>
+      </c>
+      <c r="Q24">
+        <v>10.41096401063333</v>
+      </c>
+      <c r="R24">
+        <v>93.69867609569999</v>
+      </c>
+      <c r="S24">
+        <v>0.03272724536957982</v>
+      </c>
+      <c r="T24">
+        <v>0.03889598126491083</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.3438793333333334</v>
+      </c>
+      <c r="H25">
+        <v>1.031638</v>
+      </c>
+      <c r="I25">
+        <v>0.2301779228100128</v>
+      </c>
+      <c r="J25">
+        <v>0.2490674799287881</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>5.7743895</v>
+      </c>
+      <c r="N25">
+        <v>11.548779</v>
+      </c>
+      <c r="O25">
+        <v>0.02711858293292922</v>
+      </c>
+      <c r="P25">
+        <v>0.01985718365943388</v>
+      </c>
+      <c r="Q25">
+        <v>1.985693211667</v>
+      </c>
+      <c r="R25">
+        <v>11.914159270002</v>
+      </c>
+      <c r="S25">
+        <v>0.006242099089052712</v>
+      </c>
+      <c r="T25">
+        <v>0.004945778692538308</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.5</v>
+      </c>
+      <c r="G26">
+        <v>0.0689105</v>
+      </c>
+      <c r="H26">
+        <v>0.137821</v>
+      </c>
+      <c r="I26">
+        <v>0.04612570228064317</v>
+      </c>
+      <c r="J26">
+        <v>0.0332740061448546</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>51.426897</v>
+      </c>
+      <c r="N26">
+        <v>102.853794</v>
+      </c>
+      <c r="O26">
+        <v>0.2415189642606735</v>
+      </c>
+      <c r="P26">
+        <v>0.1768487108054954</v>
+      </c>
+      <c r="Q26">
+        <v>3.5438531857185</v>
+      </c>
+      <c r="R26">
+        <v>14.175412742874</v>
+      </c>
+      <c r="S26">
+        <v>0.01114023184061713</v>
+      </c>
+      <c r="T26">
+        <v>0.005884465090051667</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.5</v>
+      </c>
+      <c r="G27">
+        <v>0.0689105</v>
+      </c>
+      <c r="H27">
+        <v>0.137821</v>
+      </c>
+      <c r="I27">
+        <v>0.04612570228064317</v>
+      </c>
+      <c r="J27">
+        <v>0.0332740061448546</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.5682903333333333</v>
+      </c>
+      <c r="N27">
+        <v>1.704871</v>
+      </c>
+      <c r="O27">
+        <v>0.002668893141774033</v>
+      </c>
+      <c r="P27">
+        <v>0.002931386648116022</v>
+      </c>
+      <c r="Q27">
+        <v>0.03916117101516667</v>
+      </c>
+      <c r="R27">
+        <v>0.234967026091</v>
+      </c>
+      <c r="S27">
+        <v>0.0001231045704763194</v>
+      </c>
+      <c r="T27">
+        <v>9.753897734235722E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.5</v>
+      </c>
+      <c r="G28">
+        <v>0.0689105</v>
+      </c>
+      <c r="H28">
+        <v>0.137821</v>
+      </c>
+      <c r="I28">
+        <v>0.04612570228064317</v>
+      </c>
+      <c r="J28">
+        <v>0.0332740061448546</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>53.30129133333333</v>
+      </c>
+      <c r="N28">
+        <v>159.903874</v>
+      </c>
+      <c r="O28">
+        <v>0.2503217854381353</v>
+      </c>
+      <c r="P28">
+        <v>0.2749416707924686</v>
+      </c>
+      <c r="Q28">
+        <v>3.673018636425667</v>
+      </c>
+      <c r="R28">
+        <v>22.038111818554</v>
+      </c>
+      <c r="S28">
+        <v>0.01154626814947847</v>
+      </c>
+      <c r="T28">
+        <v>0.009148410843425188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.5</v>
+      </c>
+      <c r="G29">
+        <v>0.0689105</v>
+      </c>
+      <c r="H29">
+        <v>0.137821</v>
+      </c>
+      <c r="I29">
+        <v>0.04612570228064317</v>
+      </c>
+      <c r="J29">
+        <v>0.0332740061448546</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>71.58517466666667</v>
+      </c>
+      <c r="N29">
+        <v>214.755524</v>
+      </c>
+      <c r="O29">
+        <v>0.3361893921368179</v>
+      </c>
+      <c r="P29">
+        <v>0.3692546096817647</v>
+      </c>
+      <c r="Q29">
+        <v>4.932970178867333</v>
+      </c>
+      <c r="R29">
+        <v>29.59782107320401</v>
+      </c>
+      <c r="S29">
+        <v>0.01550697181161326</v>
+      </c>
+      <c r="T29">
+        <v>0.01228658015156692</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.5</v>
+      </c>
+      <c r="G30">
+        <v>0.0689105</v>
+      </c>
+      <c r="H30">
+        <v>0.137821</v>
+      </c>
+      <c r="I30">
+        <v>0.04612570228064317</v>
+      </c>
+      <c r="J30">
+        <v>0.0332740061448546</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>30.27505</v>
+      </c>
+      <c r="N30">
+        <v>90.82514999999999</v>
+      </c>
+      <c r="O30">
+        <v>0.14218238208967</v>
+      </c>
+      <c r="P30">
+        <v>0.1561664384127215</v>
+      </c>
+      <c r="Q30">
+        <v>2.086268833025</v>
+      </c>
+      <c r="R30">
+        <v>12.51761299815</v>
+      </c>
+      <c r="S30">
+        <v>0.006558262225820771</v>
+      </c>
+      <c r="T30">
+        <v>0.005196283031364951</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.5</v>
+      </c>
+      <c r="G31">
+        <v>0.0689105</v>
+      </c>
+      <c r="H31">
+        <v>0.137821</v>
+      </c>
+      <c r="I31">
+        <v>0.04612570228064317</v>
+      </c>
+      <c r="J31">
+        <v>0.0332740061448546</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>5.7743895</v>
+      </c>
+      <c r="N31">
+        <v>11.548779</v>
+      </c>
+      <c r="O31">
+        <v>0.02711858293292922</v>
+      </c>
+      <c r="P31">
+        <v>0.01985718365943388</v>
+      </c>
+      <c r="Q31">
+        <v>0.39791606763975</v>
+      </c>
+      <c r="R31">
+        <v>1.591664270559</v>
+      </c>
+      <c r="S31">
+        <v>0.001250863682637224</v>
+      </c>
+      <c r="T31">
+        <v>0.0006607280511035092</v>
       </c>
     </row>
   </sheetData>
